--- a/assignment2/Performance table.xlsx
+++ b/assignment2/Performance table.xlsx
@@ -227,18 +227,6 @@
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -287,6 +275,18 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +571,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -591,61 +591,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -656,43 +656,43 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>415</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>487</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>451.36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="9">
         <v>490</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="9">
         <v>448</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>232</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="19">
         <v>228</v>
       </c>
     </row>
@@ -700,40 +700,40 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>480</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>580</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>529.26</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>587</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <v>463</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>243</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="20">
         <v>234.54</v>
       </c>
     </row>
@@ -741,40 +741,40 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>39</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>62</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>51.25</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>78</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <v>43</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="11">
         <v>14</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="20">
         <v>8.89</v>
       </c>
     </row>
@@ -782,40 +782,40 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>467</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>541</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>513.79999999999995</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>621</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <v>412</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="20">
         <v>148.22999999999999</v>
       </c>
     </row>
